--- a/Excel/99 Cent Store Data Arizona.xlsx
+++ b/Excel/99 Cent Store Data Arizona.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="251">
   <si>
     <t>Store Name</t>
   </si>
@@ -25,10 +25,10 @@
     <t>Store Url</t>
   </si>
   <si>
+    <t>Longitude</t>
+  </si>
+  <si>
     <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
   </si>
   <si>
     <t>City</t>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>33.6408339</t>
+  </si>
+  <si>
+    <t>Glendale</t>
   </si>
   <si>
     <t>Glendale - 67th Avenue</t>
@@ -807,7 +810,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -825,13 +828,23 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -854,14 +867,20 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1101,10 +1120,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1112,885 +1131,900 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="G8" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="F10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="F11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="F12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="G13" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>82</v>
+      <c r="F14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>88</v>
+      <c r="F15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="G16" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>100</v>
+      <c r="F18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>100</v>
+      <c r="F19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>100</v>
+      <c r="F20" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>125</v>
+      <c r="F21" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="F22" s="3" t="s">
         <v>137</v>
       </c>
+      <c r="G22" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="E24" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>137</v>
+      <c r="F24" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="E25" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>137</v>
+      <c r="F25" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>137</v>
+      <c r="F26" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>137</v>
+      <c r="F27" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>137</v>
+      <c r="F28" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="E29" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>137</v>
+      <c r="F29" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="E30" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>180</v>
+      <c r="F30" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="E31" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="F31" s="3" t="s">
         <v>192</v>
       </c>
+      <c r="G31" s="3" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>192</v>
-      </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="D33" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="E33" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>199</v>
+      <c r="F33" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="E34" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="F34" s="3" t="s">
         <v>211</v>
       </c>
+      <c r="G34" s="3" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="D35" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="E35" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="F35" s="3" t="s">
         <v>218</v>
       </c>
+      <c r="G35" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>218</v>
-      </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="D37" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="E37" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>218</v>
+      <c r="F37" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="E38" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>218</v>
+      <c r="F38" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="D39" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="E39" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="F39" s="3" t="s">
         <v>243</v>
       </c>
+      <c r="G39" s="3" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1"/>
